--- a/Teams/Nott'ham Forest_stats.xlsx
+++ b/Teams/Nott'ham Forest_stats.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Matches" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StandardStats" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ShootingStats" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PassingStats" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PassTypes" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GoalShotCreation" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DefensiveActions" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PlayingTime" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MiscStats" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>33-022</t>
+          <t>33-023</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -4498,7 +4498,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>28-163</t>
+          <t>28-164</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -4579,7 +4579,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>27-159</t>
+          <t>27-160</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -4660,7 +4660,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>22-259</t>
+          <t>22-260</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -4741,7 +4741,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>33-103</t>
+          <t>33-104</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -4822,7 +4822,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>25-052</t>
+          <t>25-053</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -4903,7 +4903,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>22-134</t>
+          <t>22-135</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>22-327</t>
+          <t>22-328</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>24-133</t>
+          <t>24-134</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -5146,7 +5146,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>23-341</t>
+          <t>23-342</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -5227,7 +5227,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>26-265</t>
+          <t>26-266</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>27-119</t>
+          <t>27-120</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -5389,7 +5389,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>31-285</t>
+          <t>31-286</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -5470,7 +5470,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>30-139</t>
+          <t>30-140</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -5551,7 +5551,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>25-231</t>
+          <t>25-232</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -5632,7 +5632,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>23-263</t>
+          <t>23-264</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -5713,7 +5713,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>27-108</t>
+          <t>27-109</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -5794,7 +5794,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>23-325</t>
+          <t>23-326</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -5875,7 +5875,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>27-220</t>
+          <t>27-221</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -5956,7 +5956,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>25-201</t>
+          <t>25-202</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -6037,7 +6037,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>34-045</t>
+          <t>34-046</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>29-213</t>
+          <t>29-214</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -6199,7 +6199,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>18-321</t>
+          <t>18-322</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -6693,7 +6693,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>33-022</t>
+          <t>33-023</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -6810,7 +6810,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>28-163</t>
+          <t>28-164</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -6927,7 +6927,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>27-159</t>
+          <t>27-160</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>22-259</t>
+          <t>22-260</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -7161,7 +7161,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>33-103</t>
+          <t>33-104</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -7278,7 +7278,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>25-052</t>
+          <t>25-053</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>22-134</t>
+          <t>22-135</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -7512,7 +7512,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>22-327</t>
+          <t>22-328</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -7629,7 +7629,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>24-133</t>
+          <t>24-134</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -7746,7 +7746,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>23-341</t>
+          <t>23-342</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -7863,7 +7863,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>26-265</t>
+          <t>26-266</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -7980,7 +7980,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>27-119</t>
+          <t>27-120</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -8097,7 +8097,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>31-285</t>
+          <t>31-286</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -8214,7 +8214,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>30-139</t>
+          <t>30-140</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -8331,7 +8331,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>25-231</t>
+          <t>25-232</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -8448,7 +8448,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>23-263</t>
+          <t>23-264</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -8565,7 +8565,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>27-108</t>
+          <t>27-109</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -8682,7 +8682,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>23-325</t>
+          <t>23-326</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -8799,7 +8799,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>27-220</t>
+          <t>27-221</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>25-201</t>
+          <t>25-202</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -9033,7 +9033,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>34-045</t>
+          <t>34-046</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -9150,7 +9150,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>29-213</t>
+          <t>29-214</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -9267,7 +9267,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>18-321</t>
+          <t>18-322</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -9384,7 +9384,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>18-311</t>
+          <t>18-312</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -9447,7 +9447,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>38-055</t>
+          <t>38-056</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -9510,7 +9510,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>26-162</t>
+          <t>26-163</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -9573,7 +9573,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>22-270</t>
+          <t>22-271</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -10048,7 +10048,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>33-022</t>
+          <t>33-023</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -10122,7 +10122,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>28-163</t>
+          <t>28-164</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -10206,7 +10206,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>27-159</t>
+          <t>27-160</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -10290,7 +10290,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>22-259</t>
+          <t>22-260</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -10374,7 +10374,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>33-103</t>
+          <t>33-104</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -10458,7 +10458,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>25-052</t>
+          <t>25-053</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -10542,7 +10542,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>22-134</t>
+          <t>22-135</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -10626,7 +10626,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>22-327</t>
+          <t>22-328</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -10710,7 +10710,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>24-133</t>
+          <t>24-134</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -10794,7 +10794,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>23-341</t>
+          <t>23-342</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -10878,7 +10878,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>26-265</t>
+          <t>26-266</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -10962,7 +10962,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>27-119</t>
+          <t>27-120</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -11046,7 +11046,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>31-285</t>
+          <t>31-286</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>30-139</t>
+          <t>30-140</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -11212,7 +11212,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>25-231</t>
+          <t>25-232</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -11296,7 +11296,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>23-263</t>
+          <t>23-264</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -11378,7 +11378,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>27-108</t>
+          <t>27-109</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -11462,7 +11462,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>23-325</t>
+          <t>23-326</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -11536,7 +11536,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>27-220</t>
+          <t>27-221</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -11620,7 +11620,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>25-201</t>
+          <t>25-202</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>34-045</t>
+          <t>34-046</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -11788,7 +11788,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>29-213</t>
+          <t>29-214</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -11870,7 +11870,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>18-321</t>
+          <t>18-322</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -12363,7 +12363,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>33-022</t>
+          <t>33-023</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -12465,7 +12465,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>28-163</t>
+          <t>28-164</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -12567,7 +12567,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>27-159</t>
+          <t>27-160</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -12669,7 +12669,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>22-259</t>
+          <t>22-260</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -12771,7 +12771,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>33-103</t>
+          <t>33-104</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -12873,7 +12873,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>25-052</t>
+          <t>25-053</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -12975,7 +12975,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>22-134</t>
+          <t>22-135</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -13077,7 +13077,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>22-327</t>
+          <t>22-328</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -13179,7 +13179,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>24-133</t>
+          <t>24-134</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -13281,7 +13281,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>23-341</t>
+          <t>23-342</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -13383,7 +13383,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>26-265</t>
+          <t>26-266</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -13485,7 +13485,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>27-119</t>
+          <t>27-120</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -13587,7 +13587,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>31-285</t>
+          <t>31-286</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -13689,7 +13689,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>30-139</t>
+          <t>30-140</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -13791,7 +13791,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>25-231</t>
+          <t>25-232</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -13893,7 +13893,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>23-263</t>
+          <t>23-264</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -13995,7 +13995,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>27-108</t>
+          <t>27-109</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -14097,7 +14097,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>23-325</t>
+          <t>23-326</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -14199,7 +14199,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>27-220</t>
+          <t>27-221</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -14301,7 +14301,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>25-201</t>
+          <t>25-202</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -14403,7 +14403,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>34-045</t>
+          <t>34-046</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -14505,7 +14505,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>29-213</t>
+          <t>29-214</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -14607,7 +14607,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>18-321</t>
+          <t>18-322</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -15085,7 +15085,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>33-022</t>
+          <t>33-023</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -15163,7 +15163,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>28-163</t>
+          <t>28-164</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -15241,7 +15241,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>27-159</t>
+          <t>27-160</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -15319,7 +15319,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>22-259</t>
+          <t>22-260</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -15397,7 +15397,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>33-103</t>
+          <t>33-104</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -15475,7 +15475,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>25-052</t>
+          <t>25-053</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -15553,7 +15553,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>22-134</t>
+          <t>22-135</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -15631,7 +15631,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>22-327</t>
+          <t>22-328</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -15709,7 +15709,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>24-133</t>
+          <t>24-134</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -15787,7 +15787,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>23-341</t>
+          <t>23-342</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -15865,7 +15865,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>26-265</t>
+          <t>26-266</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -15943,7 +15943,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>27-119</t>
+          <t>27-120</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -16021,7 +16021,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>31-285</t>
+          <t>31-286</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -16099,7 +16099,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>30-139</t>
+          <t>30-140</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -16177,7 +16177,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>25-231</t>
+          <t>25-232</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -16255,7 +16255,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>23-263</t>
+          <t>23-264</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -16333,7 +16333,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>27-108</t>
+          <t>27-109</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -16411,7 +16411,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>23-325</t>
+          <t>23-326</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -16489,7 +16489,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>27-220</t>
+          <t>27-221</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -16567,7 +16567,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>25-201</t>
+          <t>25-202</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -16645,7 +16645,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>34-045</t>
+          <t>34-046</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -16723,7 +16723,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>29-213</t>
+          <t>29-214</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -16801,7 +16801,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>18-321</t>
+          <t>18-322</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -17213,7 +17213,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>33-022</t>
+          <t>33-023</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -17294,7 +17294,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>28-163</t>
+          <t>28-164</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -17375,7 +17375,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>27-159</t>
+          <t>27-160</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -17456,7 +17456,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>22-259</t>
+          <t>22-260</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -17537,7 +17537,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>33-103</t>
+          <t>33-104</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -17618,7 +17618,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>25-052</t>
+          <t>25-053</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -17699,7 +17699,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>22-134</t>
+          <t>22-135</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -17780,7 +17780,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>22-327</t>
+          <t>22-328</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -17861,7 +17861,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>24-133</t>
+          <t>24-134</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -17942,7 +17942,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>23-341</t>
+          <t>23-342</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -18023,7 +18023,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>26-265</t>
+          <t>26-266</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -18104,7 +18104,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>27-119</t>
+          <t>27-120</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -18185,7 +18185,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>31-285</t>
+          <t>31-286</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -18266,7 +18266,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>30-139</t>
+          <t>30-140</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -18347,7 +18347,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>25-231</t>
+          <t>25-232</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -18428,7 +18428,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>23-263</t>
+          <t>23-264</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -18509,7 +18509,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>27-108</t>
+          <t>27-109</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -18590,7 +18590,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>23-325</t>
+          <t>23-326</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -18671,7 +18671,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>27-220</t>
+          <t>27-221</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -18752,7 +18752,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>25-201</t>
+          <t>25-202</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -18833,7 +18833,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>34-045</t>
+          <t>34-046</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -18914,7 +18914,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>29-213</t>
+          <t>29-214</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -18995,7 +18995,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>18-321</t>
+          <t>18-322</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -19429,7 +19429,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>33-022</t>
+          <t>33-023</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -19510,7 +19510,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>28-163</t>
+          <t>28-164</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -19591,7 +19591,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>27-159</t>
+          <t>27-160</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -19672,7 +19672,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>22-259</t>
+          <t>22-260</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -19753,7 +19753,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>33-103</t>
+          <t>33-104</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -19834,7 +19834,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>25-052</t>
+          <t>25-053</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -19915,7 +19915,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>22-134</t>
+          <t>22-135</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -19996,7 +19996,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>22-327</t>
+          <t>22-328</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -20077,7 +20077,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>24-133</t>
+          <t>24-134</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -20158,7 +20158,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>23-341</t>
+          <t>23-342</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -20239,7 +20239,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>26-265</t>
+          <t>26-266</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -20320,7 +20320,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>27-119</t>
+          <t>27-120</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -20401,7 +20401,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>31-285</t>
+          <t>31-286</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -20482,7 +20482,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>30-139</t>
+          <t>30-140</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -20563,7 +20563,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>25-231</t>
+          <t>25-232</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -20644,7 +20644,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>23-263</t>
+          <t>23-264</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -20725,7 +20725,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>27-108</t>
+          <t>27-109</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -20806,7 +20806,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>23-325</t>
+          <t>23-326</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -20887,7 +20887,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>27-220</t>
+          <t>27-221</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -20968,7 +20968,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>25-201</t>
+          <t>25-202</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -21049,7 +21049,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>34-045</t>
+          <t>34-046</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -21130,7 +21130,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>29-213</t>
+          <t>29-214</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -21209,7 +21209,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>18-321</t>
+          <t>18-322</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -21666,7 +21666,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>33-022</t>
+          <t>33-023</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -21761,7 +21761,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>28-163</t>
+          <t>28-164</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -21860,7 +21860,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>27-159</t>
+          <t>27-160</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -21959,7 +21959,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>22-259</t>
+          <t>22-260</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -22058,7 +22058,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>33-103</t>
+          <t>33-104</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -22157,7 +22157,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>25-052</t>
+          <t>25-053</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -22256,7 +22256,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>22-134</t>
+          <t>22-135</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -22355,7 +22355,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>22-327</t>
+          <t>22-328</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -22454,7 +22454,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>24-133</t>
+          <t>24-134</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -22553,7 +22553,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>23-341</t>
+          <t>23-342</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -22652,7 +22652,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>26-265</t>
+          <t>26-266</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -22751,7 +22751,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>27-119</t>
+          <t>27-120</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -22850,7 +22850,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>31-285</t>
+          <t>31-286</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -22949,7 +22949,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>30-139</t>
+          <t>30-140</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -23044,7 +23044,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>25-231</t>
+          <t>25-232</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -23143,7 +23143,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>23-263</t>
+          <t>23-264</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -23242,7 +23242,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>27-108</t>
+          <t>27-109</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -23341,7 +23341,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>23-325</t>
+          <t>23-326</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -23440,7 +23440,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>27-220</t>
+          <t>27-221</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -23539,7 +23539,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>25-201</t>
+          <t>25-202</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -23638,7 +23638,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>34-045</t>
+          <t>34-046</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -23733,7 +23733,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>29-213</t>
+          <t>29-214</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -23828,7 +23828,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>18-321</t>
+          <t>18-322</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -24380,7 +24380,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>33-022</t>
+          <t>33-023</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -24497,7 +24497,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>28-163</t>
+          <t>28-164</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -24614,7 +24614,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>27-159</t>
+          <t>27-160</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -24731,7 +24731,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>22-259</t>
+          <t>22-260</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -24848,7 +24848,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>33-103</t>
+          <t>33-104</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -24965,7 +24965,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>25-052</t>
+          <t>25-053</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -25082,7 +25082,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>22-134</t>
+          <t>22-135</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -25199,7 +25199,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>22-327</t>
+          <t>22-328</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -25316,7 +25316,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>24-133</t>
+          <t>24-134</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -25433,7 +25433,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>23-341</t>
+          <t>23-342</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -25550,7 +25550,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>26-265</t>
+          <t>26-266</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -25667,7 +25667,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>27-119</t>
+          <t>27-120</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -25784,7 +25784,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>31-285</t>
+          <t>31-286</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -25901,7 +25901,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>30-139</t>
+          <t>30-140</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -26018,7 +26018,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>25-231</t>
+          <t>25-232</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -26135,7 +26135,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>23-263</t>
+          <t>23-264</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -26252,7 +26252,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>27-108</t>
+          <t>27-109</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -26369,7 +26369,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>23-325</t>
+          <t>23-326</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -26486,7 +26486,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>27-220</t>
+          <t>27-221</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -26603,7 +26603,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>25-201</t>
+          <t>25-202</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -26720,7 +26720,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>34-045</t>
+          <t>34-046</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -26837,7 +26837,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>29-213</t>
+          <t>29-214</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -26954,7 +26954,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>18-321</t>
+          <t>18-322</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -27071,7 +27071,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>18-311</t>
+          <t>18-312</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -27134,7 +27134,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>38-055</t>
+          <t>38-056</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -27197,7 +27197,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>26-162</t>
+          <t>26-163</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -27260,7 +27260,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>22-270</t>
+          <t>22-271</t>
         </is>
       </c>
       <c r="F30" t="n">

--- a/Teams/Nott'ham Forest_stats.xlsx
+++ b/Teams/Nott'ham Forest_stats.xlsx
@@ -7,16 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Matches" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet_9" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3553,12 +3553,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2025-05-03</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -3573,7 +3573,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -3916,7 +3916,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>33-026</t>
+          <t>33-029</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -3987,7 +3987,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>28-167</t>
+          <t>28-170</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -4058,7 +4058,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>27-163</t>
+          <t>27-166</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -4129,7 +4129,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>22-263</t>
+          <t>22-266</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -4200,7 +4200,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>33-107</t>
+          <t>33-110</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -4271,7 +4271,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>25-056</t>
+          <t>25-059</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>22-138</t>
+          <t>22-141</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -4413,7 +4413,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>22-331</t>
+          <t>22-334</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -4484,7 +4484,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>24-137</t>
+          <t>24-140</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -4555,7 +4555,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>23-345</t>
+          <t>23-348</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -4626,7 +4626,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>26-269</t>
+          <t>26-272</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -4697,7 +4697,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>27-123</t>
+          <t>27-126</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>31-289</t>
+          <t>31-292</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -4839,7 +4839,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>30-143</t>
+          <t>30-146</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -4910,7 +4910,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>25-235</t>
+          <t>25-238</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -4981,7 +4981,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>23-267</t>
+          <t>23-270</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -5052,7 +5052,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>27-112</t>
+          <t>27-115</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -5123,7 +5123,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>23-329</t>
+          <t>23-332</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -5194,7 +5194,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>27-224</t>
+          <t>27-227</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -5265,7 +5265,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>25-205</t>
+          <t>25-208</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -5336,7 +5336,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>34-049</t>
+          <t>34-052</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -5407,7 +5407,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>29-217</t>
+          <t>29-220</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -5478,7 +5478,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>18-325</t>
+          <t>18-328</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -5610,7 +5610,7 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>26.9</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -5923,7 +5923,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>33-026</t>
+          <t>33-029</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6030,7 +6030,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>28-167</t>
+          <t>28-170</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6137,7 +6137,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>27-163</t>
+          <t>27-166</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6244,7 +6244,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>22-263</t>
+          <t>22-266</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6351,7 +6351,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>33-107</t>
+          <t>33-110</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6458,7 +6458,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>25-056</t>
+          <t>25-059</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6565,7 +6565,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>22-138</t>
+          <t>22-141</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6672,7 +6672,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>22-331</t>
+          <t>22-334</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -6779,7 +6779,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>24-137</t>
+          <t>24-140</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -6886,7 +6886,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>23-345</t>
+          <t>23-348</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -6993,7 +6993,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>26-269</t>
+          <t>26-272</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7100,7 +7100,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>27-123</t>
+          <t>27-126</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7207,7 +7207,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>31-289</t>
+          <t>31-292</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7314,7 +7314,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>30-143</t>
+          <t>30-146</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7421,7 +7421,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>25-235</t>
+          <t>25-238</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>23-267</t>
+          <t>23-270</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>27-112</t>
+          <t>27-115</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -7742,7 +7742,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>23-329</t>
+          <t>23-332</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>27-224</t>
+          <t>27-227</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>25-205</t>
+          <t>25-208</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -8063,7 +8063,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>34-049</t>
+          <t>34-052</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -8170,7 +8170,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>29-217</t>
+          <t>29-220</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -8277,7 +8277,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>18-325</t>
+          <t>18-328</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -8384,7 +8384,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>18-315</t>
+          <t>18-318</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -8437,7 +8437,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>38-059</t>
+          <t>38-062</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -8490,7 +8490,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>26-166</t>
+          <t>26-169</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -8543,7 +8543,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>22-274</t>
+          <t>22-277</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -8695,7 +8695,7 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>26.9</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -8969,7 +8969,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>33-026</t>
+          <t>33-029</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -9033,7 +9033,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>28-167</t>
+          <t>28-170</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -9107,7 +9107,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>27-163</t>
+          <t>27-166</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -9181,7 +9181,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>22-263</t>
+          <t>22-266</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -9255,7 +9255,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>33-107</t>
+          <t>33-110</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -9329,7 +9329,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>25-056</t>
+          <t>25-059</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -9403,7 +9403,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>22-138</t>
+          <t>22-141</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -9477,7 +9477,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>22-331</t>
+          <t>22-334</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -9551,7 +9551,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>24-137</t>
+          <t>24-140</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -9625,7 +9625,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>23-345</t>
+          <t>23-348</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -9699,7 +9699,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>26-269</t>
+          <t>26-272</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -9773,7 +9773,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>27-123</t>
+          <t>27-126</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -9847,7 +9847,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>31-289</t>
+          <t>31-292</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -9919,7 +9919,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>30-143</t>
+          <t>30-146</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -9993,7 +9993,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>25-235</t>
+          <t>25-238</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -10067,7 +10067,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>23-267</t>
+          <t>23-270</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -10139,7 +10139,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>27-112</t>
+          <t>27-115</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -10213,7 +10213,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>23-329</t>
+          <t>23-332</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -10277,7 +10277,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>27-224</t>
+          <t>27-227</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -10351,7 +10351,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>25-205</t>
+          <t>25-208</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -10425,7 +10425,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>34-049</t>
+          <t>34-052</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -10499,7 +10499,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>29-217</t>
+          <t>29-220</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -10571,7 +10571,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>18-325</t>
+          <t>18-328</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -10701,7 +10701,7 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>26.9</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -10987,7 +10987,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>33-026</t>
+          <t>33-029</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -11079,7 +11079,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>28-167</t>
+          <t>28-170</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -11171,7 +11171,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>27-163</t>
+          <t>27-166</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -11263,7 +11263,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>22-263</t>
+          <t>22-266</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -11355,7 +11355,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>33-107</t>
+          <t>33-110</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -11447,7 +11447,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>25-056</t>
+          <t>25-059</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -11539,7 +11539,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>22-138</t>
+          <t>22-141</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -11631,7 +11631,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>22-331</t>
+          <t>22-334</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -11723,7 +11723,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>24-137</t>
+          <t>24-140</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -11815,7 +11815,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>23-345</t>
+          <t>23-348</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -11907,7 +11907,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>26-269</t>
+          <t>26-272</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -11999,7 +11999,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>27-123</t>
+          <t>27-126</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -12091,7 +12091,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>31-289</t>
+          <t>31-292</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -12183,7 +12183,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>30-143</t>
+          <t>30-146</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -12275,7 +12275,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>25-235</t>
+          <t>25-238</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -12367,7 +12367,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>23-267</t>
+          <t>23-270</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -12459,7 +12459,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>27-112</t>
+          <t>27-115</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -12551,7 +12551,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>23-329</t>
+          <t>23-332</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -12643,7 +12643,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>27-224</t>
+          <t>27-227</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -12735,7 +12735,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>25-205</t>
+          <t>25-208</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -12827,7 +12827,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>34-049</t>
+          <t>34-052</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -12919,7 +12919,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>29-217</t>
+          <t>29-220</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -13011,7 +13011,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>18-325</t>
+          <t>18-328</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -13185,7 +13185,7 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>26.9</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -13436,7 +13436,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>33-026</t>
+          <t>33-029</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -13504,7 +13504,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>28-167</t>
+          <t>28-170</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -13572,7 +13572,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>27-163</t>
+          <t>27-166</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -13640,7 +13640,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>22-263</t>
+          <t>22-266</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -13708,7 +13708,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>33-107</t>
+          <t>33-110</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -13776,7 +13776,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>25-056</t>
+          <t>25-059</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -13844,7 +13844,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>22-138</t>
+          <t>22-141</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -13912,7 +13912,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>22-331</t>
+          <t>22-334</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -13980,7 +13980,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>24-137</t>
+          <t>24-140</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -14048,7 +14048,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>23-345</t>
+          <t>23-348</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -14116,7 +14116,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>26-269</t>
+          <t>26-272</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -14184,7 +14184,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>27-123</t>
+          <t>27-126</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -14252,7 +14252,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>31-289</t>
+          <t>31-292</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -14320,7 +14320,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>30-143</t>
+          <t>30-146</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -14388,7 +14388,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>25-235</t>
+          <t>25-238</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -14456,7 +14456,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>23-267</t>
+          <t>23-270</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -14524,7 +14524,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>27-112</t>
+          <t>27-115</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -14592,7 +14592,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>23-329</t>
+          <t>23-332</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -14660,7 +14660,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>27-224</t>
+          <t>27-227</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>25-205</t>
+          <t>25-208</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -14796,7 +14796,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>34-049</t>
+          <t>34-052</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -14864,7 +14864,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>29-217</t>
+          <t>29-220</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -14932,7 +14932,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>18-325</t>
+          <t>18-328</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -15060,7 +15060,7 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>26.9</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -15295,7 +15295,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>33-026</t>
+          <t>33-029</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -15366,7 +15366,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>28-167</t>
+          <t>28-170</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -15437,7 +15437,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>27-163</t>
+          <t>27-166</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -15508,7 +15508,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>22-263</t>
+          <t>22-266</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -15579,7 +15579,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>33-107</t>
+          <t>33-110</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -15650,7 +15650,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>25-056</t>
+          <t>25-059</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -15721,7 +15721,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>22-138</t>
+          <t>22-141</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -15792,7 +15792,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>22-331</t>
+          <t>22-334</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -15863,7 +15863,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>24-137</t>
+          <t>24-140</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -15934,7 +15934,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>23-345</t>
+          <t>23-348</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -16005,7 +16005,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>26-269</t>
+          <t>26-272</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -16076,7 +16076,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>27-123</t>
+          <t>27-126</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -16147,7 +16147,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>31-289</t>
+          <t>31-292</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -16218,7 +16218,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>30-143</t>
+          <t>30-146</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -16289,7 +16289,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>25-235</t>
+          <t>25-238</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>23-267</t>
+          <t>23-270</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -16431,7 +16431,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>27-112</t>
+          <t>27-115</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -16502,7 +16502,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>23-329</t>
+          <t>23-332</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -16573,7 +16573,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>27-224</t>
+          <t>27-227</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -16644,7 +16644,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>25-205</t>
+          <t>25-208</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -16715,7 +16715,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>34-049</t>
+          <t>34-052</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -16786,7 +16786,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>29-217</t>
+          <t>29-220</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -16857,7 +16857,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>18-325</t>
+          <t>18-328</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -16991,7 +16991,7 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>26.9</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -17226,7 +17226,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>33-026</t>
+          <t>33-029</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -17297,7 +17297,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>28-167</t>
+          <t>28-170</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>27-163</t>
+          <t>27-166</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -17439,7 +17439,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>22-263</t>
+          <t>22-266</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -17510,7 +17510,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>33-107</t>
+          <t>33-110</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -17581,7 +17581,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>25-056</t>
+          <t>25-059</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -17652,7 +17652,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>22-138</t>
+          <t>22-141</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -17723,7 +17723,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>22-331</t>
+          <t>22-334</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -17794,7 +17794,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>24-137</t>
+          <t>24-140</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -17865,7 +17865,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>23-345</t>
+          <t>23-348</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -17936,7 +17936,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>26-269</t>
+          <t>26-272</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -18007,7 +18007,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>27-123</t>
+          <t>27-126</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -18078,7 +18078,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>31-289</t>
+          <t>31-292</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -18149,7 +18149,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>30-143</t>
+          <t>30-146</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -18220,7 +18220,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>25-235</t>
+          <t>25-238</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -18291,7 +18291,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>23-267</t>
+          <t>23-270</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -18362,7 +18362,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>27-112</t>
+          <t>27-115</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -18433,7 +18433,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>23-329</t>
+          <t>23-332</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -18504,7 +18504,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>27-224</t>
+          <t>27-227</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -18575,7 +18575,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>25-205</t>
+          <t>25-208</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -18646,7 +18646,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>34-049</t>
+          <t>34-052</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -18717,7 +18717,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>29-217</t>
+          <t>29-220</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -18786,7 +18786,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>18-325</t>
+          <t>18-328</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -18920,7 +18920,7 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>26.9</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -19194,7 +19194,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>33-026</t>
+          <t>33-029</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -19279,7 +19279,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>28-167</t>
+          <t>28-170</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -19368,7 +19368,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>27-163</t>
+          <t>27-166</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -19457,7 +19457,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>22-263</t>
+          <t>22-266</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -19546,7 +19546,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>33-107</t>
+          <t>33-110</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -19635,7 +19635,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>25-056</t>
+          <t>25-059</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -19724,7 +19724,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>22-138</t>
+          <t>22-141</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -19813,7 +19813,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>22-331</t>
+          <t>22-334</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -19902,7 +19902,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>24-137</t>
+          <t>24-140</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -19991,7 +19991,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>23-345</t>
+          <t>23-348</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -20080,7 +20080,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>26-269</t>
+          <t>26-272</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -20169,7 +20169,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>27-123</t>
+          <t>27-126</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -20258,7 +20258,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>31-289</t>
+          <t>31-292</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -20347,7 +20347,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>30-143</t>
+          <t>30-146</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -20432,7 +20432,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>25-235</t>
+          <t>25-238</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -20521,7 +20521,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>23-267</t>
+          <t>23-270</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -20610,7 +20610,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>27-112</t>
+          <t>27-115</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -20699,7 +20699,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>23-329</t>
+          <t>23-332</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -20788,7 +20788,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>27-224</t>
+          <t>27-227</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -20877,7 +20877,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>25-205</t>
+          <t>25-208</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -20966,7 +20966,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>34-049</t>
+          <t>34-052</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -21051,7 +21051,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>29-217</t>
+          <t>29-220</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -21136,7 +21136,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>18-325</t>
+          <t>18-328</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -21306,7 +21306,7 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>26.9</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -21639,7 +21639,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>33-026</t>
+          <t>33-029</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -21746,7 +21746,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>28-167</t>
+          <t>28-170</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -21853,7 +21853,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>27-163</t>
+          <t>27-166</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -21960,7 +21960,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>22-263</t>
+          <t>22-266</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -22067,7 +22067,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>33-107</t>
+          <t>33-110</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -22174,7 +22174,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>25-056</t>
+          <t>25-059</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -22281,7 +22281,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>22-138</t>
+          <t>22-141</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -22388,7 +22388,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>22-331</t>
+          <t>22-334</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -22495,7 +22495,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>24-137</t>
+          <t>24-140</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -22602,7 +22602,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>23-345</t>
+          <t>23-348</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -22709,7 +22709,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>26-269</t>
+          <t>26-272</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -22816,7 +22816,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>27-123</t>
+          <t>27-126</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -22923,7 +22923,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>31-289</t>
+          <t>31-292</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -23030,7 +23030,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>30-143</t>
+          <t>30-146</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -23137,7 +23137,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>25-235</t>
+          <t>25-238</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -23244,7 +23244,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>23-267</t>
+          <t>23-270</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -23351,7 +23351,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>27-112</t>
+          <t>27-115</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -23458,7 +23458,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>23-329</t>
+          <t>23-332</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -23565,7 +23565,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>27-224</t>
+          <t>27-227</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -23672,7 +23672,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>25-205</t>
+          <t>25-208</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -23779,7 +23779,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>34-049</t>
+          <t>34-052</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -23886,7 +23886,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>29-217</t>
+          <t>29-220</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -23993,7 +23993,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>18-325</t>
+          <t>18-328</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -24100,7 +24100,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>18-315</t>
+          <t>18-318</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -24153,7 +24153,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>38-059</t>
+          <t>38-062</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -24206,7 +24206,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>26-166</t>
+          <t>26-169</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -24259,7 +24259,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>22-274</t>
+          <t>22-277</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -24411,7 +24411,7 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>26.9</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="E32" t="n">
